--- a/outputs-HGR-r202/f__Rikenellaceae.xlsx
+++ b/outputs-HGR-r202/f__Rikenellaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
@@ -536,62 +536,62 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11820.fa</t>
+          <t>even_MAG-GUT11829.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01928493733194299</v>
+        <v>0.1656860531805691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9801957662468385</v>
+        <v>0.02314651042956734</v>
       </c>
       <c r="D4" t="n">
-        <v>6.271454076072115e-06</v>
+        <v>0.0003023344530218422</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005130249671425421</v>
+        <v>0.8108651019368417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9801957662468385</v>
+        <v>0.8108651019368417</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11829.fa</t>
+          <t>even_MAG-GUT11847.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1656860531805691</v>
+        <v>0.23750862218629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02314651042956734</v>
+        <v>0.1032350295006158</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003023344530218422</v>
+        <v>0.001119220115043211</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8108651019368417</v>
+        <v>0.6581371281980509</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8108651019368417</v>
+        <v>0.6581371281980509</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,23 +607,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11847.fa</t>
+          <t>even_MAG-GUT11977.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.23750862218629</v>
+        <v>0.1422680388859632</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1032350295006158</v>
+        <v>0.0627822220943301</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001119220115043211</v>
+        <v>0.003772096510986831</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6581371281980509</v>
+        <v>0.7911776425087199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6581371281980509</v>
+        <v>0.7911776425087199</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -632,62 +632,62 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11972.fa</t>
+          <t>even_MAG-GUT12049.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01080064315061332</v>
+        <v>0.1432740122676668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9884979230350081</v>
+        <v>0.03636498305601907</v>
       </c>
       <c r="D7" t="n">
-        <v>8.736623416601147e-06</v>
+        <v>0.0004547838417281604</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006926971909620399</v>
+        <v>0.819906220834586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9884979230350081</v>
+        <v>0.819906220834586</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11977.fa</t>
+          <t>even_MAG-GUT12063.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1422680388859632</v>
+        <v>0.3485056341975119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0627822220943301</v>
+        <v>0.04584138591491303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003772096510986831</v>
+        <v>0.001428657067736379</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7911776425087199</v>
+        <v>0.6042243228198386</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7911776425087199</v>
+        <v>0.6042243228198386</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,23 +703,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12049.fa</t>
+          <t>even_MAG-GUT12082.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1432740122676668</v>
+        <v>0.192417179730425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03636498305601907</v>
+        <v>0.05779006557128082</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0004547838417281604</v>
+        <v>0.0001087014709045893</v>
       </c>
       <c r="E9" t="n">
-        <v>0.819906220834586</v>
+        <v>0.7496840532273896</v>
       </c>
       <c r="F9" t="n">
-        <v>0.819906220834586</v>
+        <v>0.7496840532273896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12063.fa</t>
+          <t>even_MAG-GUT12095.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3485056341975119</v>
+        <v>0.2067387053943175</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04584138591491303</v>
+        <v>0.06558688517496095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001428657067736379</v>
+        <v>0.001187851007812208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6042243228198386</v>
+        <v>0.7264865584229093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6042243228198386</v>
+        <v>0.7264865584229093</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -760,30 +760,30 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12082.fa</t>
+          <t>even_MAG-GUT12230.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.192417179730425</v>
+        <v>0.2461052337407607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05779006557128082</v>
+        <v>0.03650133509220842</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001087014709045893</v>
+        <v>0.000148401464855538</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7496840532273896</v>
+        <v>0.7172450297021755</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7496840532273896</v>
+        <v>0.7172450297021755</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -792,30 +792,30 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12095.fa</t>
+          <t>even_MAG-GUT12257.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2067387053943175</v>
+        <v>0.1978402834089996</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06558688517496095</v>
+        <v>0.04757592356469736</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001187851007812208</v>
+        <v>0.0003430752534085808</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7264865584229093</v>
+        <v>0.7542407177728944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7264865584229093</v>
+        <v>0.7542407177728944</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -824,30 +824,30 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12230.fa</t>
+          <t>even_MAG-GUT13856.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2461052337407607</v>
+        <v>0.1121205808742173</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03650133509220842</v>
+        <v>0.05136035695083647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000148401464855538</v>
+        <v>0.001258467233541155</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7172450297021755</v>
+        <v>0.835260594941405</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7172450297021755</v>
+        <v>0.835260594941405</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -856,30 +856,30 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12257.fa</t>
+          <t>even_MAG-GUT14645.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1978402834089996</v>
+        <v>0.1093739610958163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04757592356469736</v>
+        <v>0.03775550481637978</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003430752534085808</v>
+        <v>0.0005407294735433976</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7542407177728944</v>
+        <v>0.8523298046142604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7542407177728944</v>
+        <v>0.8523298046142604</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -888,30 +888,30 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13856.fa</t>
+          <t>even_MAG-GUT22830.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1121205808742173</v>
+        <v>0.228577453002244</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05136035695083647</v>
+        <v>0.04032644217322628</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001258467233541155</v>
+        <v>0.0004525694742919261</v>
       </c>
       <c r="E15" t="n">
-        <v>0.835260594941405</v>
+        <v>0.7306435353502377</v>
       </c>
       <c r="F15" t="n">
-        <v>0.835260594941405</v>
+        <v>0.7306435353502377</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -927,23 +927,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14645.fa</t>
+          <t>even_MAG-GUT2841.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1093739610958163</v>
+        <v>0.426571934572721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03775550481637978</v>
+        <v>0.02125930244219564</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0005407294735433976</v>
+        <v>0.0001108461744659238</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8523298046142604</v>
+        <v>0.5520579168106176</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8523298046142604</v>
+        <v>0.5520579168106176</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,190 +952,190 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22830.fa</t>
+          <t>even_MAG-GUT32169.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.228577453002244</v>
+        <v>0.0008867507376034272</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04032644217322628</v>
+        <v>0.9966713694228228</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004525694742919261</v>
+        <v>6.181154470585442e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7306435353502377</v>
+        <v>0.002435698685103124</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7306435353502377</v>
+        <v>0.9966713694228228</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Alistipes_A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Alistipes_A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2841.fa</t>
+          <t>even_MAG-GUT32170.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.426571934572721</v>
+        <v>0.9978747167881407</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02125930244219564</v>
+        <v>0.0003722337057029152</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001108461744659238</v>
+        <v>2.950340106616069e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5520579168106176</v>
+        <v>0.00175009916604986</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5520579168106176</v>
+        <v>0.9978747167881407</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2873.fa</t>
+          <t>even_MAG-GUT33270.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3823684408942405</v>
+        <v>0.9991375423621531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05066754601169478</v>
+        <v>2.878543731572954e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0026530294132064</v>
+        <v>5.129009012018885e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5643109836808583</v>
+        <v>0.0008544500851033124</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5643109836808583</v>
+        <v>0.9991375423621531</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32169.fa</t>
+          <t>even_MAG-GUT35747.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0008867507376034272</v>
+        <v>0.999423795124171</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9966713694228228</v>
+        <v>2.457356689677777e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>6.181154470585442e-06</v>
+        <v>1.274863834755082e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002435698685103124</v>
+        <v>0.000538882670584712</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9966713694228228</v>
+        <v>0.999423795124171</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32170.fa</t>
+          <t>even_MAG-GUT36799.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9978747167881407</v>
+        <v>0.2983303820062201</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003722337057029152</v>
+        <v>0.08142434792250215</v>
       </c>
       <c r="D21" t="n">
-        <v>2.950340106616069e-06</v>
+        <v>0.001170443280636327</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00175009916604986</v>
+        <v>0.6190748267906415</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9978747167881407</v>
+        <v>0.6190748267906415</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33270.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9991375423621531</v>
+        <v>0.9994587068663026</v>
       </c>
       <c r="C22" t="n">
-        <v>2.878543731572954e-06</v>
+        <v>7.280887587232861e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>5.129009012018885e-06</v>
+        <v>4.318334236153798e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0008544500851033124</v>
+        <v>0.0005362467107025425</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9991375423621531</v>
+        <v>0.9994587068663026</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1151,55 +1151,55 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35747.fa</t>
+          <t>even_MAG-GUT71577.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999423795124171</v>
+        <v>0.241591965006396</v>
       </c>
       <c r="C23" t="n">
-        <v>2.457356689677777e-05</v>
+        <v>0.068499069315977</v>
       </c>
       <c r="D23" t="n">
-        <v>1.274863834755082e-05</v>
+        <v>0.0007649173506069509</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000538882670584712</v>
+        <v>0.68914404832702</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999423795124171</v>
+        <v>0.68914404832702</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36772.fa</t>
+          <t>even_MAG-GUT73862.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1608217319994478</v>
+        <v>0.1792098804500595</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03212661770547848</v>
+        <v>0.03924418613519028</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002307434736747378</v>
+        <v>0.0002040364861754928</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8047442155583263</v>
+        <v>0.7813418969285747</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8047442155583263</v>
+        <v>0.7813418969285747</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1215,23 +1215,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36799.fa</t>
+          <t>even_MAG-GUT77597.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2983303820062201</v>
+        <v>0.1437704016804536</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08142434792250215</v>
+        <v>0.05835022129861947</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001170443280636327</v>
+        <v>0.001356228641346905</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6190748267906415</v>
+        <v>0.7965231483795799</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6190748267906415</v>
+        <v>0.7965231483795799</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1240,263 +1240,39 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter(reject)</t>
+          <t>g__Tidjanibacter</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36814.fa</t>
+          <t>even_MAG-GUT83643.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003940121804126789</v>
+        <v>0.9438392777056896</v>
       </c>
       <c r="C26" t="n">
-        <v>0.995231250217124</v>
+        <v>0.04067624401589081</v>
       </c>
       <c r="D26" t="n">
-        <v>8.230143289096884e-06</v>
+        <v>2.167846550468247e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0008203978354600465</v>
+        <v>0.01548231043186917</v>
       </c>
       <c r="F26" t="n">
-        <v>0.995231250217124</v>
+        <v>0.9438392777056896</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Alistipes</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT4979.fa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.9994587068663026</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7.280887587232861e-07</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.318334236153798e-06</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0005362467107025425</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9994587068663026</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
           <t>g__Alistipes</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>g__Alistipes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT56345.fa</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.2686619934806059</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.006046234310781119</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.0004646867541367305</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.7248270854544763</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.7248270854544763</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71577.fa</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.241591965006396</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.068499069315977</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0007649173506069509</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.68914404832702</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.68914404832702</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73862.fa</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.1792098804500595</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.03924418613519028</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.0002040364861754928</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.7813418969285747</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.7813418969285747</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77597.fa</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1437704016804536</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.05835022129861947</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.001356228641346905</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.7965231483795799</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.7965231483795799</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83643.fa</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.9438392777056896</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.04067624401589081</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2.167846550468247e-06</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.01548231043186917</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.9438392777056896</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>g__Alistipes</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>g__Alistipes</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85906.fa</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.4952464844700538</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.003531177195427795</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6.543024525027276e-05</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5011569080892682</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.5011569080892682</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Rikenellaceae.xlsx
+++ b/outputs-HGR-r202/f__Rikenellaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>g__Alistipes_A</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>g__Alistipes_A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>g__Alistipes_A</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>g__Alistipes_A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>g__Alistipes_A</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>g__Alistipes_A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>g__Alistipes</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>g__Alistipes</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>g__Alistipes</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>g__Alistipes</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>g__Alistipes</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>g__Alistipes</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>g__Alistipes_A</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>g__Alistipes_A</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>g__Alistipes</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>g__Alistipes(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>g__Alistipes</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>g__Alistipes</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>g__Alistipes</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>g__Alistipes</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>g__Tidjanibacter</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>g__Alistipes_A</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>g__Alistipes_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>g__Alistipes</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>g__Alistipes</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1440,6 +1620,11 @@
       <c r="G37" t="inlineStr">
         <is>
           <t>g__Tidjanibacter</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Rikenellaceae.xlsx
+++ b/outputs-HGR-r202/f__Rikenellaceae.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>g__Tidjanibacter</t>
+          <t>g__Tidjanibacter(reject)</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>g__Alistipes</t>
+          <t>g__Alistipes(reject)</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>g__Alistipes_A</t>
+          <t>g__Alistipes_A(reject)</t>
         </is>
       </c>
     </row>
